--- a/medicine/Handicap/Sœurs_de_la_charité_chrétienne/Sœurs_de_la_charité_chrétienne.xlsx
+++ b/medicine/Handicap/Sœurs_de_la_charité_chrétienne/Sœurs_de_la_charité_chrétienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_chr%C3%A9tienne</t>
+          <t>Sœurs_de_la_charité_chrétienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Sœurs[a] de la charité chrétienne (en latin : Congregatio Sororum Christianae Caritatis) est une congrégation religieuse féminine enseignante et hospitalière de droit pontifical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_chr%C3%A9tienne</t>
+          <t>Sœurs_de_la_charité_chrétienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'organisation a d'abord pour but de donner une éducation aux enfants aveugles de Westphalie. Pauline von Mallinckrodt s'était auparavant occupé des enfants pauvres de Paderborn que le médecin Hermann Schmidt soignait. Comme il n'existe pas d'institution prévue, il lui confie deux enfants atteints de cécité. Ne trouvant pas de congrégation capable d'assumer ses fondations, elle fonde la sienne propre, les Sœurs de la charité chrétienne. Ils ouvrent ensemble un établissement pour les enfants aveugles en 1842. Elle acquiert un premier bâtiment en 1847 après s'être installée dans le couvent local des capucines. La congrégation devient de droit diocésain le 21 août 1849 par décret de Mgr Drepper. L'institut reçoit le décret de louange le 13 avril 1859, il est définitivement approuvé par le Saint-Siège le 21 février 1863 et ses constitutions religieuses le 4 février 1888. 
 Deux instituts s'ouvrent aussi [Quand ?] : un institut évangélique à Soest et un autre catholique à Paderborn qui prend le nom de Ludwig von Vincke. À la mort de Pauline von Mallinckrodt, 152 enfants sont inscrits. Durant le Kulturkampf, les sœurs n'ont plus le droit de donner une éducation de 1878 à 1880. Certaines choisissent de s'exiler dès 1873 et fondent des établissements à l'étranger, aux États-Unis et en Amérique du Sud notamment. En 1887, les sœurs peuvent revenir en Allemagne et rouvrent la maison-mère de Paderborn. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_chr%C3%A9tienne</t>
+          <t>Sœurs_de_la_charité_chrétienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Activités et diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sœurs de la charité chrétienne se consacrent à l'enseignement et à l'assistance sociale et sanitaire. 
 Elles sont présentes en : 
@@ -557,7 +573,7 @@
 Amérique : Argentine, Chili, États-Unis, Uruguay.
 Asie : Philippines.
 La maison généralice est à Rome. 
-En 2017, l'institut comptait 468 religieuses dans 39 maisons[1].
+En 2017, l'institut comptait 468 religieuses dans 39 maisons.
 </t>
         </is>
       </c>
